--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3905.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3905.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.74092999138663</v>
+        <v>1.710097312927246</v>
       </c>
       <c r="B1">
-        <v>2.226817741829228</v>
+        <v>2.965962886810303</v>
       </c>
       <c r="C1">
-        <v>3.318894653318705</v>
+        <v>3.166210174560547</v>
       </c>
       <c r="D1">
-        <v>8.081098761196161</v>
+        <v>3.567677736282349</v>
       </c>
       <c r="E1">
-        <v>0.7305219307017119</v>
+        <v>3.900121927261353</v>
       </c>
     </row>
   </sheetData>
